--- a/scripts/python/keywords_by_year.xlsx
+++ b/scripts/python/keywords_by_year.xlsx
@@ -432,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,10 +514,10 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -548,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -565,10 +565,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,10 +582,10 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -599,10 +599,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -616,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -633,10 +633,10 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,10 +650,10 @@
         <v>7</v>
       </c>
       <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
         <v>3</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,10 +684,10 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,10 +701,10 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -735,10 +735,10 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -752,10 +752,10 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -769,10 +769,10 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -786,10 +786,10 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -803,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
         <v>3</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -820,10 +820,10 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,10 +837,10 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -854,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -871,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -888,10 +888,10 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -905,10 +905,10 @@
         <v>7</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -922,10 +922,10 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -939,10 +939,10 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -956,10 +956,10 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,10 +973,10 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -990,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>7</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>7</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>8</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
